--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/38.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/38.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2766130956493703</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.944913775410417</v>
+        <v>-1.935812565635738</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1318447586412522</v>
+        <v>0.127944970190435</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1479442570195818</v>
+        <v>-0.1452022867048552</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2801060604731705</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.08787803435197</v>
+        <v>-2.076464838425337</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06874148015217822</v>
+        <v>0.06644044436090613</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1204004497845892</v>
+        <v>-0.118499467170226</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3008411295921675</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.300174866962458</v>
+        <v>-2.287838920642371</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0559631392605453</v>
+        <v>0.05327227062900056</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1435334517369466</v>
+        <v>-0.1417886942683107</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3295812406213757</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.469733901879913</v>
+        <v>-2.457568051162416</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001554447152832634</v>
+        <v>-0.0002428720470759749</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1690361117408488</v>
+        <v>-0.1669628434517585</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.356180646324527</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.540452791211167</v>
+        <v>-2.525987364750489</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0734934847679654</v>
+        <v>-0.07165236412532952</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1719197067203935</v>
+        <v>-0.1709560749803938</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.373387205157379</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.33980057214972</v>
+        <v>-2.324697104673315</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1259953540689513</v>
+        <v>-0.1215743284496798</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1476945887960364</v>
+        <v>-0.1468404606628548</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.379588382166191</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.032648065193121</v>
+        <v>-2.015772829358399</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1765699598899377</v>
+        <v>-0.1689791698653034</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1161385694072267</v>
+        <v>-0.1165050414780448</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3740131945921504</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.679377019188989</v>
+        <v>-1.662255035226902</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1064190292660475</v>
+        <v>-0.09765436057632254</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07336938068023816</v>
+        <v>-0.07417386717832886</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.353781357212632</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.248423384484014</v>
+        <v>-1.230761182728291</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008594799047194379</v>
+        <v>0.01373270827910209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01050993022234594</v>
+        <v>-0.01140493970207298</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3158056735711702</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9361117975981883</v>
+        <v>-0.9180816637235568</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07459627299672211</v>
+        <v>0.07719661864663051</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01600409118843538</v>
+        <v>-0.01680273749416244</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2576552173276385</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5724678399321951</v>
+        <v>-0.5523877985379277</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1468073314768845</v>
+        <v>0.1473256485491571</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02211001230461556</v>
+        <v>-0.02083247022507045</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.178399654843335</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1295199101604049</v>
+        <v>-0.1072965181686836</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01091335541555739</v>
+        <v>0.01156745696028449</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0466816135466387</v>
+        <v>0.04760290389200209</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.08206566765939115</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3233563466295644</v>
+        <v>0.3461330968477401</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1625549582653051</v>
+        <v>-0.1617928131618508</v>
       </c>
       <c r="G14" t="n">
-        <v>0.114257019338166</v>
+        <v>0.1168734255170744</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.02725705056887905</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8679455242499636</v>
+        <v>0.8896812601793215</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.180387985647664</v>
+        <v>-0.1846863672272992</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1958970683894168</v>
+        <v>0.198676999954507</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1511672334765586</v>
       </c>
       <c r="E16" t="n">
-        <v>1.568114506341412</v>
+        <v>1.586435189786134</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5150003470740286</v>
+        <v>-0.5210318057375725</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2612824020445811</v>
+        <v>0.2634009318244896</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2953566290294898</v>
       </c>
       <c r="E17" t="n">
-        <v>2.274090099690404</v>
+        <v>2.287798491215946</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6816589964588931</v>
+        <v>-0.6869604310769825</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3714036092051879</v>
+        <v>0.3738083084109145</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4624080239730951</v>
       </c>
       <c r="E18" t="n">
-        <v>3.038194587682745</v>
+        <v>3.048162335999378</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9603982375423636</v>
+        <v>-0.9639446943551808</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4823774844508854</v>
+        <v>0.4856801132325208</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6462321690051812</v>
       </c>
       <c r="E19" t="n">
-        <v>3.66809583530303</v>
+        <v>3.675209189601937</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.200698792536481</v>
+        <v>-1.203102031694117</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6026051444967622</v>
+        <v>0.6045046670630344</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8338726124679866</v>
       </c>
       <c r="E20" t="n">
-        <v>4.330667119005488</v>
+        <v>4.331400063147124</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.461088149213411</v>
+        <v>-1.462539437015774</v>
       </c>
       <c r="G20" t="n">
-        <v>0.714292983258914</v>
+        <v>0.717299222278095</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.010065741852143</v>
       </c>
       <c r="E21" t="n">
-        <v>4.854977688691257</v>
+        <v>4.853275272617257</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.734228105868247</v>
+        <v>-1.734146343175156</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8621710340504197</v>
+        <v>0.864261822916601</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.163076742706168</v>
       </c>
       <c r="E22" t="n">
-        <v>5.374477399917481</v>
+        <v>5.365958019307029</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.95393906268437</v>
+        <v>-1.952852056880688</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9487037042543056</v>
+        <v>0.9507463115334869</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.286928131538231</v>
       </c>
       <c r="E23" t="n">
-        <v>5.722006806804115</v>
+        <v>5.711342615548118</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.20348318214203</v>
+        <v>-2.200130181701258</v>
       </c>
       <c r="G23" t="n">
-        <v>1.058364996266276</v>
+        <v>1.06055652845073</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.379308591403091</v>
       </c>
       <c r="E24" t="n">
-        <v>6.145829566633092</v>
+        <v>6.130412918841187</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.433485287926922</v>
+        <v>-2.428037118475697</v>
       </c>
       <c r="G24" t="n">
-        <v>1.179119733672971</v>
+        <v>1.180020583345062</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.44073856262623</v>
       </c>
       <c r="E25" t="n">
-        <v>6.436992356922104</v>
+        <v>6.415021553250111</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.557294445939799</v>
+        <v>-2.552322982190254</v>
       </c>
       <c r="G25" t="n">
-        <v>1.253088690054587</v>
+        <v>1.25365518871386</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.471197353746055</v>
       </c>
       <c r="E26" t="n">
-        <v>6.602404125237333</v>
+        <v>6.575838550223249</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.605862215659831</v>
+        <v>-2.602377810890877</v>
       </c>
       <c r="G26" t="n">
-        <v>1.31697747441657</v>
+        <v>1.317114718937116</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.471789464544051</v>
       </c>
       <c r="E27" t="n">
-        <v>6.707295440136305</v>
+        <v>6.678755880103313</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.690593916543581</v>
+        <v>-2.68315351147231</v>
       </c>
       <c r="G27" t="n">
-        <v>1.327384697208567</v>
+        <v>1.329000970445203</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.446963195927842</v>
       </c>
       <c r="E28" t="n">
-        <v>6.891868879596619</v>
+        <v>6.8591097805809</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.717436170670892</v>
+        <v>-2.711384271334075</v>
       </c>
       <c r="G28" t="n">
-        <v>1.367141806724011</v>
+        <v>1.36861791534392</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.402426966812868</v>
       </c>
       <c r="E29" t="n">
-        <v>6.855887454444265</v>
+        <v>6.822335549315183</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738744112509613</v>
+        <v>-2.731319767967343</v>
       </c>
       <c r="G29" t="n">
-        <v>1.352947219184197</v>
+        <v>1.35365972265256</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.345817628553236</v>
       </c>
       <c r="E30" t="n">
-        <v>6.7916102972901</v>
+        <v>6.757729881340564</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.640713563589821</v>
+        <v>-2.636895537832095</v>
       </c>
       <c r="G30" t="n">
-        <v>1.336245729072292</v>
+        <v>1.336616581287383</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.28281549457608</v>
       </c>
       <c r="E31" t="n">
-        <v>6.81633767175773</v>
+        <v>6.778789615003831</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.541075501721939</v>
+        <v>-2.538526987779258</v>
       </c>
       <c r="G31" t="n">
-        <v>1.298031890388939</v>
+        <v>1.29804941096603</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.217937910562314</v>
       </c>
       <c r="E32" t="n">
-        <v>6.776059325073832</v>
+        <v>6.736135770076024</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.407046737096748</v>
+        <v>-2.406859120917066</v>
       </c>
       <c r="G32" t="n">
-        <v>1.25177464677277</v>
+        <v>1.25089131767777</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.154144210285422</v>
       </c>
       <c r="E33" t="n">
-        <v>6.609666404441513</v>
+        <v>6.567560077547797</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.372804229220666</v>
+        <v>-2.371735474018121</v>
       </c>
       <c r="G33" t="n">
-        <v>1.193693933716422</v>
+        <v>1.192810604621422</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.092099090063713</v>
       </c>
       <c r="E34" t="n">
-        <v>6.31181951399232</v>
+        <v>6.273471350884603</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.335303624029722</v>
+        <v>-2.336665848898539</v>
       </c>
       <c r="G34" t="n">
-        <v>1.144049378529344</v>
+        <v>1.143193790348072</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.03288013281475</v>
       </c>
       <c r="E35" t="n">
-        <v>6.116194970531918</v>
+        <v>6.079413439025746</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.297840250065095</v>
+        <v>-2.297440926912232</v>
       </c>
       <c r="G35" t="n">
-        <v>1.083931898386178</v>
+        <v>1.084184486705906</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9756703087881515</v>
       </c>
       <c r="E36" t="n">
-        <v>5.919046136864607</v>
+        <v>5.882401849878981</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.233729538393294</v>
+        <v>-2.236276592287885</v>
       </c>
       <c r="G36" t="n">
-        <v>1.062324646688821</v>
+        <v>1.060943441194821</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9202225432590513</v>
       </c>
       <c r="E37" t="n">
-        <v>5.612936834268962</v>
+        <v>5.578338074658698</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.189455770108625</v>
+        <v>-2.190600447811897</v>
       </c>
       <c r="G37" t="n">
-        <v>0.956996777410667</v>
+        <v>0.9565777436085762</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8671296367782011</v>
       </c>
       <c r="E38" t="n">
-        <v>5.306624584988681</v>
+        <v>5.273174883225963</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.143091942981819</v>
+        <v>-2.144471688427728</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8834804359372321</v>
+        <v>0.8837476247378685</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8151697317227915</v>
       </c>
       <c r="E39" t="n">
-        <v>4.992651463375402</v>
+        <v>4.957121193083139</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.084457871699017</v>
+        <v>-2.086623123017834</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8027193358367084</v>
+        <v>0.8034902412287082</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.764601415812554</v>
       </c>
       <c r="E40" t="n">
-        <v>4.701869745638116</v>
+        <v>4.667581976271216</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.104802911821784</v>
+        <v>-2.105946859501011</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7623256453536283</v>
+        <v>0.7626921174244464</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7143526517995932</v>
       </c>
       <c r="E41" t="n">
-        <v>4.380500020396293</v>
+        <v>4.34754089479212</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.999344368239494</v>
+        <v>-2.000051031515493</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6827442641105588</v>
+        <v>0.6832143995958314</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6636506873739199</v>
       </c>
       <c r="E42" t="n">
-        <v>4.002080376050304</v>
+        <v>3.972952416636675</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.909108286053018</v>
+        <v>-1.908946950738972</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6036432386893983</v>
+        <v>0.6035103743131256</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6127552298193795</v>
       </c>
       <c r="E43" t="n">
-        <v>3.700450500997567</v>
+        <v>3.673625037423301</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.856444351413941</v>
+        <v>-1.85653925453985</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5633721922459545</v>
+        <v>0.5641065964356816</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.560915334941258</v>
       </c>
       <c r="E44" t="n">
-        <v>3.39851693594192</v>
+        <v>3.374280137632836</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.761462382907967</v>
+        <v>-1.762280009838876</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5146284867309676</v>
+        <v>0.5145540242783313</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5087747016906204</v>
       </c>
       <c r="E45" t="n">
-        <v>3.115974269581633</v>
+        <v>3.091848434927457</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.678838261443443</v>
+        <v>-1.679813573568171</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4195428548105386</v>
+        <v>0.4209050796793564</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4572057445029584</v>
       </c>
       <c r="E46" t="n">
-        <v>2.82098761334253</v>
+        <v>2.798622596685991</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.60064830603101</v>
+        <v>-1.601159322862828</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3816312460820033</v>
+        <v>0.3835307686482755</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4068671041397532</v>
       </c>
       <c r="E47" t="n">
-        <v>2.4908181782568</v>
+        <v>2.470024173346079</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.478835033758406</v>
+        <v>-1.480449846946951</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3179366481161113</v>
+        <v>0.3196463644305654</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3592488514528311</v>
       </c>
       <c r="E48" t="n">
-        <v>2.197449255302425</v>
+        <v>2.179394300610248</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.374634321606434</v>
+        <v>-1.376865275089343</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2899781872233007</v>
+        <v>0.2901650733789369</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3150045905894002</v>
       </c>
       <c r="E49" t="n">
-        <v>1.916441099485682</v>
+        <v>1.900463793226868</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.287634436013458</v>
+        <v>-1.291503563454366</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2359403473306788</v>
+        <v>0.2369039790706785</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2748831655867529</v>
       </c>
       <c r="E50" t="n">
-        <v>1.782502127818082</v>
+        <v>1.765518848424632</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.165854744846945</v>
+        <v>-1.170450976237125</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1976359856656891</v>
+        <v>0.198053559419689</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2395838952021274</v>
       </c>
       <c r="E51" t="n">
-        <v>1.506805626956065</v>
+        <v>1.493544010146341</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.08970301656942</v>
+        <v>-1.095046792582146</v>
       </c>
       <c r="G51" t="n">
-        <v>0.16693263436197</v>
+        <v>0.1665092204156065</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2088330112762708</v>
       </c>
       <c r="E52" t="n">
-        <v>1.34745743836238</v>
+        <v>1.336651622441565</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.007137297028533</v>
+        <v>-1.012743881697622</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1443281698185216</v>
+        <v>0.1438244532271581</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1827386203732149</v>
       </c>
       <c r="E53" t="n">
-        <v>1.1044689348329</v>
+        <v>1.09540641633263</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9335932146413708</v>
+        <v>-0.9403415569175508</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1007720151705333</v>
+        <v>0.1005106665622606</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1605077235656552</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9593372345003937</v>
+        <v>0.9512544082691231</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9408569538936415</v>
+        <v>-0.9483878819465487</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05006016482900143</v>
+        <v>0.04942212381327433</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1413851104916253</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7980033805030733</v>
+        <v>0.7904841328348935</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.894729654557563</v>
+        <v>-0.9001946145618344</v>
       </c>
       <c r="G55" t="n">
-        <v>0.022193686965918</v>
+        <v>0.0223615924963725</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1250319837745928</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6514598136666582</v>
+        <v>0.6454706963977507</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8451975230734855</v>
+        <v>-0.8520466086679381</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0157139935384652</v>
+        <v>0.01564537127819248</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1109161617160227</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5080290693600603</v>
+        <v>0.5023976638734254</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8129406806010395</v>
+        <v>-0.8199313908603104</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01207218167961825</v>
+        <v>-0.01143122056770934</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.09885104061195617</v>
       </c>
       <c r="E58" t="n">
-        <v>0.397786678207908</v>
+        <v>0.3929641393636366</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8073720571823138</v>
+        <v>-0.8137145060892211</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02759103283788681</v>
+        <v>-0.02763337423252317</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.0882407104273895</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2521439610435836</v>
+        <v>0.2466001584424032</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7426160042543312</v>
+        <v>-0.7488504096025114</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09311215096550558</v>
+        <v>-0.09162582200896052</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.07848854612995966</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1918731758508724</v>
+        <v>0.1866067823869648</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7256166643318812</v>
+        <v>-0.7326102946873339</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08030022896778174</v>
+        <v>-0.07924169410187294</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.06950685943711878</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03381712981764215</v>
+        <v>0.02908365390691615</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.698001314740434</v>
+        <v>-0.7050124656729776</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1367573685470393</v>
+        <v>-0.1361193275313122</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.0612185931458845</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05328787923787991</v>
+        <v>-0.05876013948260572</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7164519424652473</v>
+        <v>-0.7235667568122454</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1686637994776671</v>
+        <v>-0.1686900803433035</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.05349391169177076</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1468828020574912</v>
+        <v>-0.1518119244123989</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7502812567316018</v>
+        <v>-0.7570033181421455</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1839359025085721</v>
+        <v>-0.1834205055324813</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.04632538394436012</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2596992579939154</v>
+        <v>-0.2653919855003684</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7532203335386011</v>
+        <v>-0.7603336878375082</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2171140353263814</v>
+        <v>-0.2174367059544722</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.03951139851474236</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4125385521983289</v>
+        <v>-0.4190547468280544</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7342119674430607</v>
+        <v>-0.742442258531513</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2376656722540122</v>
+        <v>-0.237637931340285</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.0331130426543635</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.436556343293777</v>
+        <v>-0.4448348159692293</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7647225923987798</v>
+        <v>-0.7735880044067774</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2530647994688263</v>
+        <v>-0.253949588611917</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.0270503332081851</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5233007204708446</v>
+        <v>-0.5309280116977516</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8052374668734052</v>
+        <v>-0.8136838450793121</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2679645902365496</v>
+        <v>-0.2687471760132766</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.02110735224331299</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5562058242956539</v>
+        <v>-0.5655165509713788</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7534335005598737</v>
+        <v>-0.7649883211513252</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3194721667876266</v>
+        <v>-0.3188677068779904</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.01491440528253246</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6367902585771777</v>
+        <v>-0.6456220894790845</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7994191752311341</v>
+        <v>-0.8103505552877676</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3176325061930816</v>
+        <v>-0.3183377094209905</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.007981278676403464</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7466048556386937</v>
+        <v>-0.7540423406137826</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.795696052599317</v>
+        <v>-0.8078991345431318</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3576816253267073</v>
+        <v>-0.3572552912841619</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.0003778455667670761</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7746523794650498</v>
+        <v>-0.7828885107458659</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9250402529248276</v>
+        <v>-0.9353759333603703</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4026087651320588</v>
+        <v>-0.4013735644471501</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.008205252295909356</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8171616796318566</v>
+        <v>-0.8261365952466724</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.991590704956537</v>
+        <v>-1.001562833417444</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4199774972215087</v>
+        <v>-0.4195073617362361</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.01789869163201567</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8689627258492063</v>
+        <v>-0.8759008743772044</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.026342769616346</v>
+        <v>-1.03476870714898</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4532928745598634</v>
+        <v>-0.4527278359486818</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.02811699656823364</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8114777124139491</v>
+        <v>-0.8182800764694926</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.051229289325885</v>
+        <v>-1.060398391336791</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4677385903713141</v>
+        <v>-0.4671939924334051</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.03815669671041037</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.795742774138226</v>
+        <v>-0.8016618090987698</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.117153380726594</v>
+        <v>-1.123768858626502</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4563881765125898</v>
+        <v>-0.4559151209311355</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.04758183967990839</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7128003621898846</v>
+        <v>-0.7178083271417015</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.159979511329128</v>
+        <v>-1.164515880747581</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.459073204951771</v>
+        <v>-0.4582847789826803</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.05609241717666796</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5611364066986526</v>
+        <v>-0.5681548578716508</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.144040166320678</v>
+        <v>-1.149309479880767</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4399261342875943</v>
+        <v>-0.4382894203776856</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.06324474999235537</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4221617291655081</v>
+        <v>-0.4306154076118695</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.16870767881658</v>
+        <v>-1.172652728758216</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4526781943135909</v>
+        <v>-0.450708589438955</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.06806635803839074</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3192633799106267</v>
+        <v>-0.3289726997151695</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.251212076337649</v>
+        <v>-1.254148233048467</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3960297884344243</v>
+        <v>-0.3950822172234245</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.0697705692410685</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1304660213233137</v>
+        <v>-0.139896471942493</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.308502903376816</v>
+        <v>-1.310190718969906</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3738195368755211</v>
+        <v>-0.3723930698907033</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.06796195499596057</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02835216981337089</v>
+        <v>0.01728500528428295</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.301190982537545</v>
+        <v>-1.300547101329454</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3234259770178074</v>
+        <v>-0.3233325339399892</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.06185569079845751</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2402737700644958</v>
+        <v>0.2288707944744989</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289316411414184</v>
+        <v>-1.288279777269639</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2875087939814534</v>
+        <v>-0.2877438617240897</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.05133164812065986</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4226556773403559</v>
+        <v>0.4108438882849045</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.2304866936872</v>
+        <v>-1.229615044976928</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.269891853716549</v>
+        <v>-0.2697589893402763</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.0363116040877386</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6286640828233006</v>
+        <v>0.6190905474912123</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.152737672798221</v>
+        <v>-1.152533266065494</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2452228811725556</v>
+        <v>-0.2455075905502828</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.01699694064517345</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7423448872295428</v>
+        <v>0.7335115962795452</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.064341981230336</v>
+        <v>-1.064774155465245</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2095758070330198</v>
+        <v>-0.2101087245862014</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.006084209391532511</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9676814093399368</v>
+        <v>0.9588758593036665</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9984938123303534</v>
+        <v>-0.9989186863248078</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1807179565162093</v>
+        <v>-0.1806449541116639</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.03139188775056533</v>
       </c>
       <c r="E87" t="n">
-        <v>1.110663918882626</v>
+        <v>1.102378145966719</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9429346023270047</v>
+        <v>-0.9426995345843684</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1508249319029446</v>
+        <v>-0.150674546949581</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.05653756537846436</v>
       </c>
       <c r="E88" t="n">
-        <v>1.212575275628053</v>
+        <v>1.205108589691146</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8884762685842011</v>
+        <v>-0.8862949567363835</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1144930952087726</v>
+        <v>-0.1144901751125908</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07817272746290439</v>
       </c>
       <c r="E89" t="n">
-        <v>1.334620695547111</v>
+        <v>1.32811180115784</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.792673753051136</v>
+        <v>-0.7889214294575005</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1129629648095003</v>
+        <v>-0.1127877590385912</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09197098668124842</v>
       </c>
       <c r="E90" t="n">
-        <v>1.37134966532201</v>
+        <v>1.36665707075783</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6926224975735265</v>
+        <v>-0.6888278325852547</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07847662890223679</v>
+        <v>-0.07887230193487305</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09443086044689121</v>
       </c>
       <c r="E91" t="n">
-        <v>1.415783308872635</v>
+        <v>1.412201810905636</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5875457565670091</v>
+        <v>-0.5829509852249195</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01667571331025338</v>
+        <v>-0.01824088486370751</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08442199316250866</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438951351979174</v>
+        <v>1.435847289737902</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4601726211642252</v>
+        <v>-0.4547310219294085</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0205565211358887</v>
+        <v>-0.02102227647688858</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06395798842300474</v>
       </c>
       <c r="E93" t="n">
-        <v>1.410029259346363</v>
+        <v>1.407909269518364</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3518253724340725</v>
+        <v>-0.3466422017113466</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.014043246602345</v>
+        <v>-0.01407536766034499</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03658591696490734</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410221985694363</v>
+        <v>1.407582218746001</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2123017168187463</v>
+        <v>-0.2064235632047479</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01661001114616249</v>
+        <v>-0.01766270581970766</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.005679893495422611</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335395981083384</v>
+        <v>1.333972434194748</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09629651585177745</v>
+        <v>-0.09139805450677876</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01907749241979819</v>
+        <v>-0.01935928170134357</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02644459042911273</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257276107979314</v>
+        <v>1.255383885653496</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03091455421291566</v>
+        <v>0.03458657516155104</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03380791760897605</v>
+        <v>-0.03399918390888509</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05779144937040051</v>
       </c>
       <c r="E97" t="n">
-        <v>1.174618405408699</v>
+        <v>1.174030006028063</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1320185043640703</v>
+        <v>0.1331193806246155</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05235928865206198</v>
+        <v>-0.05249361307642558</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0869296204496991</v>
       </c>
       <c r="E98" t="n">
-        <v>1.07631920764018</v>
+        <v>1.077583609286907</v>
       </c>
       <c r="F98" t="n">
-        <v>0.193079175573963</v>
+        <v>0.1940778484681446</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0574490162969697</v>
+        <v>-0.05789141086851504</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1115283212371184</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9387301157453083</v>
+        <v>0.9408997472083985</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1945377636167808</v>
+        <v>0.1951568240073261</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05126863272815319</v>
+        <v>-0.05327619885315264</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1324507727583452</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8440343166651518</v>
+        <v>0.8471412990026056</v>
       </c>
       <c r="F100" t="n">
-        <v>0.211293275508049</v>
+        <v>0.2112669946424127</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04508386901506393</v>
+        <v>-0.0462533675358818</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1499721307385705</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6905920225991931</v>
+        <v>0.6961694063064643</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1974228186444164</v>
+        <v>0.1978973342739617</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0493749503542446</v>
+        <v>-0.04947277357633548</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1680123923923428</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6312761088579363</v>
+        <v>0.6360373256823896</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2067627462819593</v>
+        <v>0.2067934072918684</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08136752412223601</v>
+        <v>-0.08128722147723604</v>
       </c>
     </row>
   </sheetData>
